--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestLoginLogout" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
